--- a/brainstorm.xlsx
+++ b/brainstorm.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TheTransportedMan\monemetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\monemetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F644CF2C-5527-473A-9A38-BD2DA07E8249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D82729-4A78-46EB-BF0D-C43F38654BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="active_pm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -469,24 +470,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.06640625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
@@ -494,7 +495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -522,7 +523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -530,7 +531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -541,7 +542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -558,7 +559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -569,12 +570,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -582,12 +583,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -595,12 +596,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -608,27 +609,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -636,4 +637,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A33796E-3A7A-4187-A97C-739EA5B46D19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>